--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D14" s="12" t="n">
-        <v>1160</v>
+        <v>2299.097</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/server/LISTAS/ma/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D14" s="12" t="n">
-        <v>1160</v>
+        <v>2506.016</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="13">
